--- a/data/metadata/20210421_FBGRBGOGTT_Huishi sample sheet.xlsx
+++ b/data/metadata/20210421_FBGRBGOGTT_Huishi sample sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nile_rat_multiomics\data\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A2F16F-0C9B-429D-BC73-99F244FCDC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB39ECA-4808-4BE7-9AD0-5BA71D7CD813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{738F6AC3-FEF2-0849-9025-0F50FEEDD7DB}"/>
   </bookViews>
@@ -38159,7 +38159,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
